--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="302">
   <si>
     <t>Action</t>
   </si>
@@ -931,6 +931,121 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3029accc9e73fa132c825781c7109fc7
 *** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: College Inn Fat Free &amp; Lower Sodium Chicken Broth - 32oz</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Allow Substitute</t>
+  </si>
+  <si>
+    <t>VerifySummaryViewCart: null</t>
+  </si>
+  <si>
+    <t>Wait: 5000</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Checkout</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: Please select delivery slot.</t>
+  </si>
+  <si>
+    <t>SetText: ChandnaUserAddress</t>
+  </si>
+  <si>
+    <t>SetText: ChandnaUserCity</t>
+  </si>
+  <si>
+    <t>SetText: 068202322</t>
+  </si>
+  <si>
+    <t>SetText: 1234567890</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 38 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3fddb53966380820a83efadd593af767
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 64 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3fddb53966380820a83efadd593af767
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>SetText: 06820</t>
+  </si>
+  <si>
+    <t>SelectSlot: 4 Sep</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 37 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3fddb53966380820a83efadd593af767</t>
+  </si>
+  <si>
+    <t>VerifyText: Your card's security code is incomplete</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: all</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1860,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>107</v>
@@ -1784,7 +1899,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>107</v>
@@ -1823,7 +1938,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>107</v>
@@ -1862,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>107</v>
@@ -1907,7 +2022,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -1948,7 +2063,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>107</v>
@@ -1987,7 +2102,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>107</v>
@@ -2028,7 +2143,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>107</v>
@@ -2065,7 +2180,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>107</v>
@@ -2104,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>107</v>
@@ -2147,7 +2262,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>107</v>
@@ -2186,10 +2301,10 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>108</v>
@@ -2227,13 +2342,13 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>152</v>
@@ -2268,7 +2383,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>107</v>
@@ -2309,7 +2424,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>107</v>
@@ -2348,7 +2463,7 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>107</v>
@@ -2389,7 +2504,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>107</v>
@@ -2430,7 +2545,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>107</v>
@@ -2471,7 +2586,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>107</v>
@@ -2512,7 +2627,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>107</v>
@@ -2553,7 +2668,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>107</v>
@@ -2592,10 +2707,10 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>108</v>
@@ -2631,7 +2746,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>107</v>
@@ -2670,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>107</v>
@@ -2709,7 +2824,7 @@
         <v>98</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>107</v>
@@ -2750,7 +2865,7 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>107</v>
@@ -2791,7 +2906,7 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>107</v>
@@ -2832,7 +2947,7 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>107</v>
@@ -2873,7 +2988,7 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>107</v>
@@ -2914,7 +3029,7 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>107</v>
@@ -2955,7 +3070,7 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>107</v>
@@ -2994,7 +3109,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>107</v>
@@ -3031,7 +3146,7 @@
         <v>201</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>107</v>
@@ -3070,7 +3185,7 @@
         <v>151</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>107</v>
@@ -3107,7 +3222,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>107</v>
@@ -3144,7 +3259,7 @@
         <v>201</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>107</v>
@@ -3183,7 +3298,7 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>107</v>
@@ -3224,7 +3339,7 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>107</v>
@@ -3265,7 +3380,7 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>107</v>
@@ -3306,7 +3421,7 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>107</v>
@@ -3347,7 +3462,7 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>107</v>
@@ -3388,7 +3503,7 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>107</v>
@@ -3435,7 +3550,7 @@
         <v>206</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -3466,7 +3581,7 @@
         <v>201</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>107</v>
@@ -3511,7 +3626,7 @@
         <v>206</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -3546,7 +3661,7 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>107</v>
@@ -3583,7 +3698,7 @@
         <v>201</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>107</v>
@@ -3622,7 +3737,7 @@
         <v>180</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>107</v>
@@ -3665,10 +3780,10 @@
         <v>180</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>108</v>
@@ -3704,7 +3819,7 @@
         <v>204</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>107</v>
@@ -3743,13 +3858,13 @@
         <v>235</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>
@@ -3784,10 +3899,10 @@
         <v>161</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>108</v>
@@ -3823,7 +3938,7 @@
         <v>236</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>107</v>
@@ -3864,7 +3979,7 @@
         <v>239</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>107</v>
@@ -3903,7 +4018,7 @@
         <v>242</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>107</v>
@@ -3942,7 +4057,7 @@
         <v>204</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>107</v>
@@ -3977,7 +4092,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>107</v>
@@ -4016,7 +4131,7 @@
         <v>40</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>107</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="355">
   <si>
     <t>Action</t>
   </si>
@@ -1046,6 +1046,498 @@
   </si>
   <si>
     <t>DeleteProductfromViewCart: all</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 52 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span/span (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: College Inn Fat Free &amp; Lower Sodium Chicken Broth - 32oz</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Allow Substitute</t>
+  </si>
+  <si>
+    <t>action VerifySummaryViewCart failed: null  null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
+  </si>
+  <si>
+    <t>text not verified: Please select delivery slot.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'message notice'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>action set text failed: ChandnaUserAddress</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Street Address']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Street Address']}</t>
+  </si>
+  <si>
+    <t>action set text failed: ChandnaUserCity</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'City']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'City']}</t>
+  </si>
+  <si>
+    <t>action set text failed: 068202322</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
+  </si>
+  <si>
+    <t>action set text failed: 1234567890</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Phone Number']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Phone Number']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>action set text failed: 06820</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
+  </si>
+  <si>
+    <t>action Select slot failed: 4 Sep  06:00 PM-07:00 PM</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
+  </si>
+  <si>
+    <t>text not verified: Your card's security code is incomplete</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: cryozonic-stripe-card-errors (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'pull-right']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'pull-right']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +2355,7 @@
         <v>273</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>108</v>
@@ -1902,7 +2394,7 @@
         <v>274</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>108</v>
@@ -1938,13 +2430,13 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>152</v>
@@ -1980,7 +2472,7 @@
         <v>274</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>108</v>
@@ -2022,13 +2514,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>152</v>
@@ -2063,13 +2555,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>152</v>
@@ -2102,13 +2594,13 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>152</v>
@@ -2143,13 +2635,13 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>152</v>
@@ -2183,7 +2675,7 @@
         <v>273</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>108</v>
@@ -2222,7 +2714,7 @@
         <v>274</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>108</v>
@@ -2262,13 +2754,13 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>108</v>
+        <v>314</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>152</v>
@@ -2301,13 +2793,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>108</v>
+        <v>316</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>152</v>
@@ -2342,13 +2834,13 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>152</v>
@@ -2383,13 +2875,13 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>152</v>
@@ -2424,13 +2916,13 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>152</v>
@@ -2463,13 +2955,13 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>152</v>
@@ -2504,13 +2996,13 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>152</v>
@@ -2545,13 +3037,13 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>152</v>
@@ -2586,13 +3078,13 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>152</v>
@@ -2627,13 +3119,13 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>152</v>
@@ -2668,13 +3160,13 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>152</v>
@@ -2707,13 +3199,13 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>152</v>
@@ -2746,13 +3238,13 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>152</v>
@@ -2788,7 +3280,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>108</v>
@@ -2824,13 +3316,13 @@
         <v>98</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>152</v>
@@ -2865,13 +3357,13 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>152</v>
@@ -2906,13 +3398,13 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>152</v>
@@ -2947,13 +3439,13 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>152</v>
@@ -2988,13 +3480,13 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>152</v>
@@ -3029,13 +3521,13 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>152</v>
@@ -3070,13 +3562,13 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>152</v>
@@ -3109,13 +3601,13 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>152</v>
@@ -3185,13 +3677,13 @@
         <v>151</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>152</v>
@@ -3225,7 +3717,7 @@
         <v>288</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>108</v>
@@ -3298,13 +3790,13 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>152</v>
@@ -3339,13 +3831,13 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>152</v>
@@ -3380,13 +3872,13 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>152</v>
@@ -3421,13 +3913,13 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>152</v>
@@ -3462,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>152</v>
@@ -3503,13 +3995,13 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>152</v>
@@ -3550,7 +4042,7 @@
         <v>206</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -3626,7 +4118,7 @@
         <v>206</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -3661,13 +4153,13 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>152</v>
@@ -3740,7 +4232,7 @@
         <v>274</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>108</v>
@@ -3780,13 +4272,13 @@
         <v>180</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>152</v>
@@ -3819,13 +4311,13 @@
         <v>204</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>152</v>
@@ -3864,7 +4356,7 @@
         <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>
@@ -3899,13 +4391,13 @@
         <v>161</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>152</v>
@@ -3938,13 +4430,13 @@
         <v>236</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>152</v>
@@ -3982,7 +4474,7 @@
         <v>301</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>108</v>
@@ -4018,13 +4510,13 @@
         <v>242</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>152</v>
@@ -4057,13 +4549,13 @@
         <v>204</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>152</v>
@@ -4134,7 +4626,7 @@
         <v>274</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>108</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="391">
   <si>
     <t>Action</t>
   </si>
@@ -1538,6 +1538,457 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
 *** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span/span (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 60 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 41 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 43 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 39 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 40 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 41 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 28 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 28 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'message notice'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Street Address']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Street Address']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'City']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 41 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'City']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Phone Number']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Phone Number']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 35 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 68 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 32 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: cryozonic-stripe-card-errors (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.29.134', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'pull-right']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 28 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'pull-right']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 32 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 32 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2806,7 @@
         <v>273</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>108</v>
@@ -2394,7 +2845,7 @@
         <v>274</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>108</v>
@@ -2430,13 +2881,13 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>152</v>
@@ -2472,7 +2923,7 @@
         <v>274</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>108</v>
@@ -2514,13 +2965,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>152</v>
@@ -2555,13 +3006,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>152</v>
@@ -2594,13 +3045,13 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>152</v>
@@ -2635,13 +3086,13 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>152</v>
@@ -2675,7 +3126,7 @@
         <v>273</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>108</v>
@@ -2714,7 +3165,7 @@
         <v>274</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>108</v>
@@ -2754,13 +3205,13 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>152</v>
@@ -2793,13 +3244,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>316</v>
+        <v>108</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>152</v>
@@ -2834,13 +3285,13 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>152</v>
@@ -2875,13 +3326,13 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>152</v>
@@ -2916,13 +3367,13 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>152</v>
@@ -2955,13 +3406,13 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>152</v>
@@ -2996,13 +3447,13 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>152</v>
@@ -3037,13 +3488,13 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>152</v>
@@ -3078,13 +3529,13 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>152</v>
@@ -3119,13 +3570,13 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>152</v>
@@ -3160,13 +3611,13 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>152</v>
@@ -3199,13 +3650,13 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>152</v>
@@ -3238,13 +3689,13 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>152</v>
@@ -3280,7 +3731,7 @@
         <v>274</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>108</v>
@@ -3316,13 +3767,13 @@
         <v>98</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>152</v>
@@ -3357,13 +3808,13 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>152</v>
@@ -3398,13 +3849,13 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>152</v>
@@ -3439,13 +3890,13 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>152</v>
@@ -3480,13 +3931,13 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>152</v>
@@ -3521,13 +3972,13 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>152</v>
@@ -3562,13 +4013,13 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>152</v>
@@ -3601,13 +4052,13 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>152</v>
@@ -3677,13 +4128,13 @@
         <v>151</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>152</v>
@@ -3717,7 +4168,7 @@
         <v>288</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>108</v>
@@ -3790,13 +4241,13 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>152</v>
@@ -3831,13 +4282,13 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>152</v>
@@ -3872,13 +4323,13 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>152</v>
@@ -3913,13 +4364,13 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>152</v>
@@ -3954,13 +4405,13 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>152</v>
@@ -3995,13 +4446,13 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>152</v>
@@ -4042,7 +4493,7 @@
         <v>206</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -4118,7 +4569,7 @@
         <v>206</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -4153,13 +4604,13 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>152</v>
@@ -4232,7 +4683,7 @@
         <v>274</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>108</v>
@@ -4272,13 +4723,13 @@
         <v>180</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>152</v>
@@ -4311,13 +4762,13 @@
         <v>204</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>152</v>
@@ -4356,7 +4807,7 @@
         <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>
@@ -4391,13 +4842,13 @@
         <v>161</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>152</v>
@@ -4430,13 +4881,13 @@
         <v>236</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>152</v>
@@ -4474,7 +4925,7 @@
         <v>301</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>108</v>
@@ -4510,13 +4961,13 @@
         <v>242</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>152</v>
@@ -4549,13 +5000,13 @@
         <v>204</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>354</v>
+        <v>108</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>152</v>
@@ -4626,7 +5077,7 @@
         <v>274</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>108</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="287">
   <si>
     <t>Action</t>
   </si>
@@ -697,9 +697,6 @@
     <t>"6000"</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
     <t>"068202322"</t>
   </si>
   <si>
@@ -718,9 +715,6 @@
     <t>verify time slot</t>
   </si>
   <si>
-    <t>Text Entered successfully: 068202322</t>
-  </si>
-  <si>
     <t>Time Slot should not appear on the screen</t>
   </si>
   <si>
@@ -790,9 +784,6 @@
     <t>Element not verified</t>
   </si>
   <si>
-    <t xml:space="preserve">DeleteProductfromViewCart succesfully </t>
-  </si>
-  <si>
     <t>action click failed</t>
   </si>
   <si>
@@ -802,137 +793,9 @@
     <t>all</t>
   </si>
   <si>
-    <t>Add product successfully</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Do Not Allow Substitute for product: null</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Allow Substitute for product: null</t>
-  </si>
-  <si>
-    <t>Select slot Fail: 2Sep for product: 06:00 PM-07:00 PM</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
     <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>text mismatch: Your card's security code is incomplete</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 58 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>element not visible
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740</t>
-  </si>
-  <si>
-    <t>"4 Sep"</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 30 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir8564_16081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 06c4f7d7d3541e1fcd4d749faf568d0f
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir8564_16081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 06c4f7d7d3541e1fcd4d749faf568d0f
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>Select Slot successfully: 4 Sep  06:00 PM-07:00 PM</t>
-  </si>
-  <si>
-    <t>text verified: Your card's security code is incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move and Add product Fail </t>
-  </si>
-  <si>
-    <t>action Move and add product failed: exist</t>
-  </si>
-  <si>
-    <t>bound must be positive</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
     <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
@@ -999,959 +862,16 @@
     <t>SetText: 1234567890</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 38 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3fddb53966380820a83efadd593af767
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 64 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3fddb53966380820a83efadd593af767
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
     <t>SetText: 06820</t>
   </si>
   <si>
     <t>SelectSlot: 4 Sep</t>
   </si>
   <si>
-    <t>element not visible
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3fddb53966380820a83efadd593af767</t>
-  </si>
-  <si>
     <t>VerifyText: Your card's security code is incomplete</t>
   </si>
   <si>
     <t>DeleteProductfromViewCart: all</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 52 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>element not visible
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 23 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
-  </si>
-  <si>
-    <t>action set text failed: Randomemailid</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>action set text failed: 123456</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>text not verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span/span (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: Banquet Brown 'N Serve Turkey Sausage Links</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: College Inn Fat Free &amp; Lower Sodium Chicken Broth - 32oz</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
-  </si>
-  <si>
-    <t>action Select Substitute failed: Do Not Allow Substitute</t>
-  </si>
-  <si>
-    <t>action Select Substitute failed: Allow Substitute</t>
-  </si>
-  <si>
-    <t>action VerifySummaryViewCart failed: null  null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 21 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
-  </si>
-  <si>
-    <t>text not verified: Please select delivery slot.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'message notice'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>action set text failed: ChandnaUserAddress</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Street Address']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Street Address']}</t>
-  </si>
-  <si>
-    <t>action set text failed: ChandnaUserCity</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'City']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'City']}</t>
-  </si>
-  <si>
-    <t>action set text failed: 068202322</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
-  </si>
-  <si>
-    <t>action set text failed: 1234567890</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Phone Number']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Phone Number']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>action set text failed: 06820</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
-  </si>
-  <si>
-    <t>action Select slot failed: 4 Sep  06:00 PM-07:00 PM</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
-  </si>
-  <si>
-    <t>text not verified: Your card's security code is incomplete</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: cryozonic-stripe-card-errors (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'pull-right']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'pull-right']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 21 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 27 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span/span (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 27 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 60 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 23 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 41 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 43 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 39 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 40 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 21 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 41 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'message notice'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Street Address']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Street Address']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'City']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 41 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'City']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Phone Number']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Phone Number']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 35 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 68 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//input[normalize-space(@placeholder) = 'Zip/Postal Code']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//input[normalize-space(@placeholder) = 'Zip/Postal Code']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 32 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: cryozonic-stripe-card-errors (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.29.134', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'pull-right']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'pull-right']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 32 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 32 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
@@ -1989,6 +909,86 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0</t>
+  </si>
+  <si>
+    <t>"6 Sep"</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>SelectSlot: 6 Sep</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 37907ebc46879002404769a61233699b
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 37907ebc46879002404769a61233699b
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 37907ebc46879002404769a61233699b</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +1645,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2653,7 +1653,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2666,7 +1666,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>215</v>
@@ -2674,33 +1674,33 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2711,7 +1711,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
@@ -2778,7 +1778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="180" r="2" spans="1:15">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -2794,7 +1794,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2803,7 +1803,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>107</v>
@@ -2842,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>107</v>
@@ -2881,7 +1881,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>107</v>
@@ -2920,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>107</v>
@@ -2932,7 +1932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="6" spans="1:15">
+    <row ht="45" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +1965,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -2977,7 +1977,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -3006,7 +2006,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>107</v>
@@ -3045,7 +2045,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>107</v>
@@ -3086,7 +2086,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>107</v>
@@ -3098,7 +2098,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="180" r="10" spans="1:15">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3114,7 +2114,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3123,7 +2123,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>107</v>
@@ -3162,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>107</v>
@@ -3205,7 +2205,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>107</v>
@@ -3244,7 +2244,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>107</v>
@@ -3276,7 +2276,7 @@
         <v>85</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="4"/>
@@ -3285,7 +2285,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>107</v>
@@ -3297,7 +2297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="15" spans="1:15">
+    <row ht="120" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -3326,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>107</v>
@@ -3358,7 +2358,7 @@
         <v>85</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -3367,7 +2367,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>107</v>
@@ -3406,10 +2406,10 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>108</v>
@@ -3438,7 +2438,7 @@
         <v>85</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -3447,7 +2447,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>107</v>
@@ -3459,7 +2459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="19" spans="1:15">
+    <row ht="135" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +2488,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>107</v>
@@ -3520,7 +2520,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -3529,7 +2529,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>107</v>
@@ -3541,7 +2541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="21" spans="1:15">
+    <row ht="135" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -3570,7 +2570,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>107</v>
@@ -3602,7 +2602,7 @@
         <v>85</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3611,7 +2611,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>107</v>
@@ -3650,7 +2650,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>107</v>
@@ -3689,7 +2689,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>107</v>
@@ -3728,7 +2728,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>107</v>
@@ -3767,7 +2767,7 @@
         <v>98</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>107</v>
@@ -3779,7 +2779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="27" spans="1:15">
+    <row ht="60" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -3808,7 +2808,7 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>107</v>
@@ -3820,7 +2820,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="28" spans="1:15">
+    <row ht="60" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -3849,7 +2849,7 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>107</v>
@@ -3861,7 +2861,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="29" spans="1:15">
+    <row ht="60" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -3890,7 +2890,7 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>107</v>
@@ -3902,7 +2902,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="30" spans="1:15">
+    <row ht="60" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -3931,7 +2931,7 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>107</v>
@@ -3943,7 +2943,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="31" spans="1:15">
+    <row ht="60" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -3972,7 +2972,7 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>107</v>
@@ -3984,7 +2984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="32" spans="1:15">
+    <row ht="60" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -4013,7 +3013,7 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>107</v>
@@ -4025,7 +3025,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="33" spans="1:15">
+    <row ht="45" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -4052,7 +3052,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>107</v>
@@ -4064,7 +3064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="34" spans="1:15">
+    <row ht="15" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4089,7 +3089,7 @@
         <v>201</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>107</v>
@@ -4128,7 +3128,7 @@
         <v>151</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>107</v>
@@ -4165,7 +3165,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>107</v>
@@ -4202,7 +3202,7 @@
         <v>201</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>107</v>
@@ -4241,7 +3241,7 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>107</v>
@@ -4282,7 +3282,7 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>107</v>
@@ -4323,7 +3323,7 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>107</v>
@@ -4364,7 +3364,7 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>107</v>
@@ -4396,7 +3396,7 @@
         <v>185</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -4405,7 +3405,7 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>107</v>
@@ -4446,7 +3446,7 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>107</v>
@@ -4493,7 +3493,7 @@
         <v>206</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -4524,7 +3524,7 @@
         <v>201</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>107</v>
@@ -4544,10 +3544,10 @@
         <v>58</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>29</v>
@@ -4560,16 +3560,16 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -4604,7 +3604,7 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>107</v>
@@ -4641,7 +3641,7 @@
         <v>201</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>107</v>
@@ -4661,7 +3661,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>38</v>
@@ -4680,7 +3680,7 @@
         <v>180</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>107</v>
@@ -4712,7 +3712,7 @@
         <v>178</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>179</v>
@@ -4723,7 +3723,7 @@
         <v>180</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>206</v>
@@ -4737,7 +3737,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>27</v>
@@ -4762,7 +3762,7 @@
         <v>204</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>107</v>
@@ -4776,13 +3776,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>28</v>
@@ -4798,16 +3798,16 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>
@@ -4815,13 +3815,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>64</v>
@@ -4830,10 +3830,10 @@
         <v>50</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -4842,7 +3842,7 @@
         <v>161</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>206</v>
@@ -4856,13 +3856,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>28</v>
@@ -4871,17 +3871,17 @@
         <v>29</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>107</v>
@@ -4895,16 +3895,16 @@
     </row>
     <row customHeight="1" ht="41.25" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>29</v>
@@ -4913,16 +3913,16 @@
         <v>102</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>107</v>
@@ -4936,13 +3936,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>28</v>
@@ -4951,17 +3951,17 @@
         <v>29</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>107</v>
@@ -4975,13 +3975,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>28</v>
@@ -4990,7 +3990,7 @@
         <v>29</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -5000,7 +4000,7 @@
         <v>204</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>107</v>
@@ -5014,13 +4014,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>199</v>
@@ -5035,7 +4035,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>107</v>
@@ -5049,7 +4049,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>53</v>
@@ -5064,7 +4064,7 @@
         <v>29</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -5074,7 +4074,7 @@
         <v>40</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>107</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="290">
   <si>
     <t>Action</t>
   </si>
@@ -989,6 +989,43 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 37907ebc46879002404769a61233699b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14304_24935}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: b09a3381b183a4641d79316fbbe1a626
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14304_24935}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: b09a3381b183a4641d79316fbbe1a626
+*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14304_24935}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: b09a3381b183a4641d79316fbbe1a626</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>108</v>
@@ -2491,7 +2528,7 @@
         <v>260</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>108</v>
@@ -3493,7 +3530,7 @@
         <v>206</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -3569,7 +3606,7 @@
         <v>206</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -3807,7 +3844,7 @@
         <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="282">
   <si>
     <t>Action</t>
   </si>
@@ -703,9 +703,6 @@
     <t>Enter address details with incorrect zip code and verify time slot</t>
   </si>
   <si>
-    <t>VerifyNoElement</t>
-  </si>
-  <si>
     <t>US_ID_07</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
     <t>verify time slot</t>
   </si>
   <si>
-    <t>Time Slot should not appear on the screen</t>
-  </si>
-  <si>
     <t>US_ID_08</t>
   </si>
   <si>
@@ -781,12 +775,6 @@
     <t>//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a</t>
   </si>
   <si>
-    <t>Element not verified</t>
-  </si>
-  <si>
-    <t>action click failed</t>
-  </si>
-  <si>
     <t>exist</t>
   </si>
   <si>
@@ -865,146 +853,16 @@
     <t>SetText: 06820</t>
   </si>
   <si>
-    <t>SelectSlot: 4 Sep</t>
-  </si>
-  <si>
     <t>VerifyText: Your card's security code is incomplete</t>
   </si>
   <si>
     <t>DeleteProductfromViewCart: all</t>
   </si>
   <si>
+    <t>"11 Sep"</t>
+  </si>
+  <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>element not visible
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0</t>
-  </si>
-  <si>
-    <t>"6 Sep"</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>SelectSlot: 6 Sep</t>
-  </si>
-  <si>
-    <t>element not visible
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 37907ebc46879002404769a61233699b
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 37907ebc46879002404769a61233699b
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>element not visible
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 21 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17476_28541}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 37907ebc46879002404769a61233699b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14304_24935}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: b09a3381b183a4641d79316fbbe1a626
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//table[normalize-space(@class) = 'table time-slot']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 19 milliseconds
@@ -1012,20 +870,76 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14304_24935}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: b09a3381b183a4641d79316fbbe1a626
-*** Element info: {Using=xpath, value=//table[normalize-space(@class) = 'table time-slot']}</t>
-  </si>
-  <si>
-    <t>element not visible
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11216_31392}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: b746c4669419dfc4e89e18d636541a91
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>SelectSlot: 11 Sep</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20 milliseconds
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14304_24935}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: b09a3381b183a4641d79316fbbe1a626</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
+  </si>
+  <si>
+    <t>text not verified: Please select delivery slot.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'message notice'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a35c3999676c4eb04cb6f7f8a978a85</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
+*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
+  </si>
+  <si>
+    <t>text not verified: Your card's security code is incomplete</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: cryozonic-stripe-card-errors (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a35c3999676c4eb04cb6f7f8a978a85</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1604,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1703,7 +1617,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>215</v>
@@ -1711,18 +1625,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1745,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
@@ -1831,7 +1745,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1840,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>107</v>
@@ -1879,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>107</v>
@@ -1918,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>107</v>
@@ -1957,7 +1871,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>107</v>
@@ -2002,7 +1916,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -2043,7 +1957,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>107</v>
@@ -2082,7 +1996,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>107</v>
@@ -2123,7 +2037,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>107</v>
@@ -2151,7 +2065,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2160,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>107</v>
@@ -2199,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>107</v>
@@ -2242,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>107</v>
@@ -2281,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>107</v>
@@ -2313,7 +2227,7 @@
         <v>85</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="4"/>
@@ -2322,7 +2236,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>107</v>
@@ -2363,7 +2277,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>107</v>
@@ -2395,7 +2309,7 @@
         <v>85</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2404,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>107</v>
@@ -2443,10 +2357,10 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>108</v>
@@ -2475,7 +2389,7 @@
         <v>85</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2484,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>107</v>
@@ -2525,10 +2439,10 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>108</v>
@@ -2557,7 +2471,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2566,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>107</v>
@@ -2607,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>107</v>
@@ -2639,7 +2553,7 @@
         <v>85</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2648,7 +2562,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>107</v>
@@ -2687,7 +2601,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>107</v>
@@ -2726,7 +2640,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>107</v>
@@ -2765,7 +2679,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>107</v>
@@ -2804,7 +2718,7 @@
         <v>98</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>107</v>
@@ -2845,7 +2759,7 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>107</v>
@@ -2886,7 +2800,7 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>107</v>
@@ -2927,7 +2841,7 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>107</v>
@@ -2968,7 +2882,7 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>107</v>
@@ -3009,7 +2923,7 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>107</v>
@@ -3050,7 +2964,7 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>107</v>
@@ -3089,7 +3003,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>107</v>
@@ -3126,7 +3040,7 @@
         <v>201</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>107</v>
@@ -3165,7 +3079,7 @@
         <v>151</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>107</v>
@@ -3202,7 +3116,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>107</v>
@@ -3239,7 +3153,7 @@
         <v>201</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>107</v>
@@ -3278,13 +3192,13 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>152</v>
@@ -3319,13 +3233,13 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>152</v>
@@ -3360,7 +3274,7 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>107</v>
@@ -3401,7 +3315,7 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>107</v>
@@ -3442,7 +3356,7 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>107</v>
@@ -3483,7 +3397,7 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>107</v>
@@ -3530,7 +3444,7 @@
         <v>206</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -3561,7 +3475,7 @@
         <v>201</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>107</v>
@@ -3575,38 +3489,40 @@
     </row>
     <row customHeight="1" ht="41.25" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" s="12"/>
+        <v>185</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>152</v>
@@ -3617,31 +3533,27 @@
         <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>107</v>
@@ -3658,27 +3570,29 @@
         <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="12"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>107</v>
@@ -3692,16 +3606,16 @@
     </row>
     <row customHeight="1" ht="41.25" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>29</v>
@@ -3709,15 +3623,19 @@
       <c r="F49" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
         <v>180</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>107</v>
@@ -3731,39 +3649,35 @@
     </row>
     <row customHeight="1" ht="41.25" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>108</v>
@@ -3774,13 +3688,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>28</v>
@@ -3789,23 +3703,23 @@
         <v>29</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>152</v>
@@ -3813,38 +3727,40 @@
     </row>
     <row customHeight="1" ht="41.25" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>
@@ -3852,37 +3768,35 @@
     </row>
     <row customHeight="1" ht="41.25" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>108</v>
@@ -3893,32 +3807,34 @@
     </row>
     <row customHeight="1" ht="41.25" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>107</v>
@@ -3932,34 +3848,32 @@
     </row>
     <row customHeight="1" ht="41.25" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>248</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>107</v>
@@ -3973,13 +3887,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>28</v>
@@ -3988,17 +3902,17 @@
         <v>29</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>107</v>
@@ -4012,32 +3926,28 @@
     </row>
     <row customHeight="1" ht="41.25" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>107</v>
@@ -4051,28 +3961,32 @@
     </row>
     <row customHeight="1" ht="41.25" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="L58" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>107</v>
@@ -4081,45 +3995,6 @@
         <v>108</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="59" spans="1:15">
-      <c r="A59" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O59" s="4" t="s">
         <v>152</v>
       </c>
     </row>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="281">
   <si>
     <t>Action</t>
   </si>
@@ -793,9 +793,6 @@
     <t>Click: null</t>
   </si>
   <si>
-    <t>SetText: Randomemailid</t>
-  </si>
-  <si>
     <t>SetText: 123456</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
     <t>Wait: 6000</t>
   </si>
   <si>
-    <t>VerifyText: Please select delivery slot.</t>
-  </si>
-  <si>
     <t>SetText: ChandnaUserAddress</t>
   </si>
   <si>
@@ -853,56 +847,16 @@
     <t>SetText: 06820</t>
   </si>
   <si>
-    <t>VerifyText: Your card's security code is incomplete</t>
-  </si>
-  <si>
     <t>DeleteProductfromViewCart: all</t>
   </si>
   <si>
     <t>"11 Sep"</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11216_31392}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: b746c4669419dfc4e89e18d636541a91
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
     <t>SelectSlot: 11 Sep</t>
   </si>
   <si>
     <t>action click failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'button action continue primary btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'button action continue primary btn-block']}</t>
-  </si>
-  <si>
-    <t>text not verified: Please select delivery slot.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'message notice'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a35c3999676c4eb04cb6f7f8a978a85</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
@@ -940,6 +894,24 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 1a35c3999676c4eb04cb6f7f8a978a85</t>
+  </si>
+  <si>
+    <t>userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Please select delivery slot.</t>
+  </si>
+  <si>
+    <t>//textarea[normalize-space(@placeholder) = 'Delivery Instructions']</t>
+  </si>
+  <si>
+    <t>SetText: user chandna</t>
+  </si>
+  <si>
+    <t>VerifyText: Your card's security code is incomplete</t>
   </si>
 </sst>
 </file>
@@ -1661,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
@@ -1883,7 +1855,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +1875,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>105</v>
@@ -1916,7 +1888,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -1957,7 +1929,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>107</v>
@@ -2037,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>107</v>
@@ -2156,7 +2128,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>107</v>
@@ -2195,7 +2167,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>107</v>
@@ -2236,7 +2208,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>107</v>
@@ -2277,7 +2249,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>107</v>
@@ -2318,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>107</v>
@@ -2357,10 +2329,10 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>108</v>
@@ -2398,7 +2370,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>107</v>
@@ -2439,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>107</v>
@@ -2480,7 +2452,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>107</v>
@@ -2521,7 +2493,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>107</v>
@@ -2562,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>107</v>
@@ -2601,7 +2573,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>107</v>
@@ -2759,7 +2731,7 @@
         <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>107</v>
@@ -2800,7 +2772,7 @@
         <v>104</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>107</v>
@@ -2841,7 +2813,7 @@
         <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>107</v>
@@ -2882,7 +2854,7 @@
         <v>104</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>107</v>
@@ -2923,7 +2895,7 @@
         <v>104</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>107</v>
@@ -2964,7 +2936,7 @@
         <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>107</v>
@@ -3003,7 +2975,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>107</v>
@@ -3040,7 +3012,7 @@
         <v>201</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>107</v>
@@ -3116,7 +3088,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>107</v>
@@ -3153,7 +3125,7 @@
         <v>201</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>107</v>
@@ -3192,13 +3164,13 @@
         <v>157</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>152</v>
@@ -3233,13 +3205,13 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>152</v>
@@ -3274,7 +3246,7 @@
         <v>165</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>107</v>
@@ -3315,7 +3287,7 @@
         <v>166</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>107</v>
@@ -3356,7 +3328,7 @@
         <v>171</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>107</v>
@@ -3397,7 +3369,7 @@
         <v>172</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>107</v>
@@ -3426,7 +3398,7 @@
         <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>174</v>
@@ -3438,13 +3410,13 @@
         <v>175</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>152</v>
@@ -3475,7 +3447,7 @@
         <v>201</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>107</v>
@@ -3516,7 +3488,7 @@
         <v>171</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>107</v>
@@ -3553,7 +3525,7 @@
         <v>201</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>107</v>
@@ -3624,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>179</v>
@@ -3635,7 +3607,7 @@
         <v>180</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>107</v>
@@ -3713,13 +3685,13 @@
         <v>231</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>152</v>
@@ -3757,10 +3729,10 @@
         <v>280</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>152</v>
@@ -3834,7 +3806,7 @@
         <v>235</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>107</v>
@@ -3947,7 +3919,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>107</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_Checkout" r:id="rId1" sheetId="2"/>
-    <sheet name="TC_Checkout" r:id="rId2" sheetId="3"/>
-    <sheet name="TC_Checkout2" r:id="rId3" sheetId="1"/>
+    <sheet name="Scenario_Checkout" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_Checkout" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_Checkout2" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="275">
   <si>
     <t>Action</t>
   </si>
@@ -856,49 +856,6 @@
     <t>SelectSlot: 11 Sep</t>
   </si>
   <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//textarea[normalize-space(@placeholder) = 'Order Instructions']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
-*** Element info: {Using=xpath, value=//textarea[normalize-space(@placeholder) = 'Order Instructions']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action primary checkout']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action primary checkout']}</t>
-  </si>
-  <si>
-    <t>text not verified: Your card's security code is incomplete</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: cryozonic-stripe-card-errors (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a35c3999676c4eb04cb6f7f8a978a85</t>
-  </si>
-  <si>
-    <t>userchandna7049580@mailinator.com</t>
-  </si>
-  <si>
     <t>SetText: userchandna7049580@mailinator.com</t>
   </si>
   <si>
@@ -918,7 +875,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1073,66 +1029,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="16" xfId="0">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1159,10 +1115,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1181,10 +1137,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1219,7 +1175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1254,7 +1210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,21 +1304,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1379,7 +1335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1431,14 +1387,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1447,13 +1403,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="65.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
-    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
+    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1613,48 +1569,48 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
+  <sheetFormatPr defaultRowHeight="41.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1701,7 +1657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="135">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1738,7 +1694,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1772,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="75">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1831,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>105</v>
@@ -1888,7 +1844,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -1900,7 +1856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="45">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1941,7 +1897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="45">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1980,7 +1936,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="60">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2021,7 +1977,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="135">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="75">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -2097,7 +2053,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="75">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2096,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="75">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2135,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="75">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2176,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="120">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2217,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="75">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2302,7 +2258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="75">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2341,7 +2297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="75">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2382,7 +2338,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="135">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2423,7 +2379,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="75">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2464,7 +2420,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="135">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2505,7 +2461,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="75">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2502,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="75">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2585,7 +2541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="60">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2580,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="75">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2663,7 +2619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="60">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2702,7 +2658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="60">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2743,7 +2699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="60">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -2784,7 +2740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="60">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -2825,7 +2781,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="60">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2822,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="60">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2907,7 +2863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="60">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +2904,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="45">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -2987,7 +2943,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="15" r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +2980,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="41.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -3063,7 +3019,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="41.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -3100,7 +3056,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="41.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -3137,7 +3093,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="41.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -3176,7 +3132,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="41.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
@@ -3205,7 +3161,7 @@
         <v>161</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>107</v>
@@ -3217,7 +3173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="41.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>82</v>
       </c>
@@ -3258,7 +3214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="41.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
@@ -3299,7 +3255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="41.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -3340,7 +3296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="41.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>82</v>
       </c>
@@ -3381,7 +3337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="41.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -3398,7 +3354,7 @@
         <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>174</v>
@@ -3410,7 +3366,7 @@
         <v>175</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>107</v>
@@ -3422,7 +3378,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="41.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
@@ -3459,7 +3415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="41.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
@@ -3500,7 +3456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="41.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
@@ -3537,7 +3493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="41.25" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
@@ -3576,7 +3532,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="41.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>88</v>
       </c>
@@ -3619,7 +3575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="41.25" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>219</v>
       </c>
@@ -3658,7 +3614,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="41.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>222</v>
       </c>
@@ -3697,7 +3653,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="41.25" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>222</v>
       </c>
@@ -3726,7 +3682,7 @@
         <v>161</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>107</v>
@@ -3738,7 +3694,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="41.25" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>227</v>
       </c>
@@ -3777,7 +3733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="41.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>227</v>
       </c>
@@ -3818,7 +3774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="41.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>227</v>
       </c>
@@ -3857,7 +3813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="41.25" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>227</v>
       </c>
@@ -3896,7 +3852,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="41.25" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>227</v>
       </c>
@@ -3931,7 +3887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="41.25" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
@@ -3972,39 +3928,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://staging.aislend.com/" r:id="rId1" ref="E3"/>
-    <hyperlink r:id="rId2" ref="I6"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://staging.aislend.com/"/>
+    <hyperlink ref="I6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+    <sheetView topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4051,7 +4007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="75">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4088,7 +4044,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -4127,7 +4083,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -4166,7 +4122,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="90" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="90">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="60">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -4291,7 +4247,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="45" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="45">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4330,7 +4286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="60">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -4371,7 +4327,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="75">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -4408,7 +4364,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="75">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -4447,7 +4403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="75">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -4490,7 +4446,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="120">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -4531,7 +4487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="120">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -4572,7 +4528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="135">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -4613,7 +4569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="135">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -4654,7 +4610,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="135">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -4695,7 +4651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="135" r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="135">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -4736,7 +4692,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="165" r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="165">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -4777,7 +4733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="165" r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="165">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4818,7 +4774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="165" r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="165">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4859,7 +4815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="120" r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="120">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -4900,7 +4856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="409.5" r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="409.5">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -4941,7 +4897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="60">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -4980,7 +4936,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="75" r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="75">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -5019,7 +4975,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="60">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -5058,7 +5014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="195" r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="195">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -5101,7 +5057,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="195" r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="195">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -5144,7 +5100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="195" r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="195">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -5187,7 +5143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="210" r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="210">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -5230,7 +5186,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="210" r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="210">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -5273,7 +5229,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="180" r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="180">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -5316,7 +5272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="60">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -5355,7 +5311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="60" r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="60">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -5392,7 +5348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="41.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -5431,7 +5387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="41.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -5468,7 +5424,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="41.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -5505,7 +5461,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="41.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -5544,7 +5500,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="41.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
@@ -5585,7 +5541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="41.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>82</v>
       </c>
@@ -5626,7 +5582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="41.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
@@ -5667,7 +5623,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="41.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5708,7 +5664,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="41.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>82</v>
       </c>
@@ -5749,7 +5705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="41.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -5790,7 +5746,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="41.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
@@ -5833,7 +5789,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.25" r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="41.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>88</v>
       </c>
@@ -5874,10 +5830,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://staging.aislend.com/" r:id="rId1" ref="E3"/>
-    <hyperlink r:id="rId2" ref="I6"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://staging.aislend.com/"/>
+    <hyperlink ref="I6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_Checkout" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_Checkout" sheetId="3" r:id="rId2"/>
-    <sheet name="TC_Checkout2" sheetId="1" r:id="rId3"/>
+    <sheet name="Scenario_Checkout" r:id="rId1" sheetId="2"/>
+    <sheet name="TC_Checkout" r:id="rId2" sheetId="3"/>
+    <sheet name="TC_Checkout2" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="278">
   <si>
     <t>Action</t>
   </si>
@@ -870,11 +870,21 @@
   <si>
     <t>VerifyText: Your card's security code is incomplete</t>
   </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: exist</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1029,66 +1039,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="16" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1115,10 +1125,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1137,10 +1147,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1175,7 +1185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1210,7 +1220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,21 +1314,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1335,7 +1345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1387,14 +1397,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1403,13 +1413,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="65.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
-    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="65.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
+    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1581,36 +1591,36 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="41.25" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="5" max="8" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="135">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45">
+    <row ht="45" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row ht="45" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="75">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1854,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>107</v>
@@ -1856,7 +1866,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45">
+    <row ht="45" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row ht="60" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="135">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75">
+    <row ht="75" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="75">
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2106,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="75">
+    <row ht="75" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>252</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>108</v>
@@ -2135,7 +2145,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="75">
+    <row ht="75" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2164,19 +2174,19 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="120">
+    <row ht="120" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2217,7 +2227,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="75">
+    <row ht="75" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +2268,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="75">
+    <row ht="75" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2307,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="75">
+    <row ht="75" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2338,7 +2348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="135">
+    <row ht="135" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="75">
+    <row ht="75" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2420,7 +2430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="135">
+    <row ht="135" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2471,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="75">
+    <row ht="75" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2502,7 +2512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="75">
+    <row ht="75" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="60">
+    <row ht="60" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2580,7 +2590,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="75">
+    <row ht="75" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2619,7 +2629,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="60">
+    <row ht="60" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2658,7 +2668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="60">
+    <row ht="60" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +2709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="60">
+    <row ht="60" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="60">
+    <row ht="60" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="60">
+    <row ht="60" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2822,7 +2832,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="60">
+    <row ht="60" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="60">
+    <row ht="60" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -2904,7 +2914,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row ht="45" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +2953,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15">
+    <row ht="15" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -2980,7 +2990,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -3056,7 +3066,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>82</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -3296,7 +3306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>82</v>
       </c>
@@ -3337,7 +3347,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -3378,7 +3388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>82</v>
       </c>
@@ -3415,7 +3425,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
@@ -3532,7 +3542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>88</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>219</v>
       </c>
@@ -3614,7 +3624,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>222</v>
       </c>
@@ -3653,7 +3663,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>222</v>
       </c>
@@ -3694,7 +3704,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>227</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>227</v>
       </c>
@@ -3774,7 +3784,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>227</v>
       </c>
@@ -3813,7 +3823,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>227</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>227</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
@@ -3928,39 +3938,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="http://staging.aislend.com/"/>
-    <hyperlink ref="I6" r:id="rId2"/>
+    <hyperlink display="http://staging.aislend.com/" r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="I6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="A21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="5" max="8" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -4007,7 +4017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="75">
+    <row ht="75" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4044,7 +4054,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45">
+    <row ht="45" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row ht="45" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -4122,7 +4132,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="90">
+    <row ht="90" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4206,7 +4216,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60">
+    <row ht="60" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45">
+    <row ht="45" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row ht="60" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -4327,7 +4337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="75">
+    <row ht="75" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75">
+    <row ht="75" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -4403,7 +4413,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="75">
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="120">
+    <row ht="120" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="120">
+    <row ht="120" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -4528,7 +4538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="135">
+    <row ht="135" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="135">
+    <row ht="135" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4620,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="135">
+    <row ht="135" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="135">
+    <row ht="135" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="165">
+    <row ht="165" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -4733,7 +4743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="165">
+    <row ht="165" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4774,7 +4784,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="165">
+    <row ht="165" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4815,7 +4825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="120">
+    <row ht="120" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4866,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="409.5">
+    <row ht="409.5" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -4897,7 +4907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="60">
+    <row ht="60" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="75">
+    <row ht="75" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -4975,7 +4985,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="60">
+    <row ht="60" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="195">
+    <row ht="195" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="195">
+    <row ht="195" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="195">
+    <row ht="195" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="210">
+    <row ht="210" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -5186,7 +5196,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="210">
+    <row ht="210" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="180">
+    <row ht="180" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -5272,7 +5282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="60">
+    <row ht="60" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -5311,7 +5321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="60">
+    <row ht="60" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -5387,7 +5397,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -5424,7 +5434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -5461,7 +5471,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -5500,7 +5510,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
@@ -5541,7 +5551,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>82</v>
       </c>
@@ -5582,7 +5592,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>82</v>
       </c>
@@ -5705,7 +5715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -5746,7 +5756,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
@@ -5789,7 +5799,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="41.25" customHeight="1">
+    <row customHeight="1" ht="41.25" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>88</v>
       </c>
@@ -5830,10 +5840,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="http://staging.aislend.com/"/>
-    <hyperlink ref="I6" r:id="rId2"/>
+    <hyperlink display="http://staging.aislend.com/" r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="I6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="280">
   <si>
     <t>Action</t>
   </si>
@@ -878,6 +878,20 @@
   </si>
   <si>
     <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17800_878}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 90c707c1cf12f41c381b5a6a3677976b</t>
   </si>
 </sst>
 </file>
@@ -2174,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>152</v>
@@ -3576,7 +3590,7 @@
         <v>269</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>108</v>
@@ -3651,13 +3665,13 @@
         <v>231</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>152</v>
@@ -3695,7 +3709,7 @@
         <v>274</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>108</v>

--- a/lib_testcase/com.aislend.Checkout.xlsx
+++ b/lib_testcase/com.aislend.Checkout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="314">
   <si>
     <t>Action</t>
   </si>
@@ -892,6 +892,240 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17800_878}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 90c707c1cf12f41c381b5a6a3677976b</t>
+  </si>
+  <si>
+    <t>action Select slot failed: 11 Sep  06:00 PM-07:00 PM</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;div class="slot" data-bind="style: {
+											background: time.is_available ==0 || $parents[2].checkTime(time.slot, key) === false ? 'rgb(255, 160, 160)':'',
+										},
+										css: time.is_available == 0 || $parents[2].checkTime(time.slot, key) === false ? 'disabled':'',
+										click: $parents[2].isSelected.bind($data, $parents[2], $parents[1]),
+										attr:{'slot-group':data.slot_group},
+										event: {load: $parents[2].getSlotStorage(time)}"&gt;...&lt;/div&gt; is not clickable at point (660, 71). Other element would receive the click: &lt;div class="header content checkout__header"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 36 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5108_9704}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 7dcd4d51e17a926636e51b41671e2c2a</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5108_9704}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 7dcd4d51e17a926636e51b41671e2c2a</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery: Title not verified</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[1]/span/span}</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: College Inn Fat Free &amp; Lower Sodium Chicken Broth - 32oz</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Allow Substitute</t>
+  </si>
+  <si>
+    <t>action VerifySummaryViewCart failed: null  null</t>
+  </si>
+  <si>
+    <t>Checkout: Title not verified</t>
+  </si>
+  <si>
+    <t>text not verified: Please select delivery slot.</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'message notice']}</t>
+  </si>
+  <si>
+    <t>action set text failed: ChandnaUserAddress</t>
+  </si>
+  <si>
+    <t>action set text failed: ChandnaUserCity</t>
+  </si>
+  <si>
+    <t>action set text failed: 068202322</t>
+  </si>
+  <si>
+    <t>action set text failed: 1234567890</t>
+  </si>
+  <si>
+    <t>action set text failed: 06820</t>
+  </si>
+  <si>
+    <t>text not verified: Your card's security code is incomplete</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=id, value=cryozonic-stripe-card-errors}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2384,7 @@
         <v>252</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>108</v>
@@ -2476,7 +2710,7 @@
         <v>255</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>108</v>
@@ -3590,7 +3824,7 @@
         <v>269</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>108</v>
@@ -3665,13 +3899,13 @@
         <v>231</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>152</v>
@@ -3709,7 +3943,7 @@
         <v>274</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>108</v>
